--- a/data/Wits Staff Bursary(1).xlsx
+++ b/data/Wits Staff Bursary(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoriso Molebatsi\OneDrive - iLAB, LLC\Documents\Functional Testing\UFT-Master_DigitalForms\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoriso Molebatsi\OneDrive - iLAB, LLC\Documents\Functional Testing\UFT-Master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0566A134-D0AD-4FA7-A4C9-E19B9D6342E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2925CD1-5958-406A-B4AF-B75B5491E66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Username</t>
   </si>
@@ -104,21 +104,6 @@
     <t>\data\empty_file.pdf</t>
   </si>
   <si>
-    <t>Bursary Type B: Academic staff studying at other institutions</t>
-  </si>
-  <si>
-    <t>Honours</t>
-  </si>
-  <si>
-    <t>NDip Electrical Engineering</t>
-  </si>
-  <si>
-    <t>BSc Eng (Electrical)</t>
-  </si>
-  <si>
-    <t>Part-Time</t>
-  </si>
-  <si>
     <t>Level 8 (Honours degree, Post Graduate diploma and Professional Qualifications)</t>
   </si>
   <si>
@@ -126,13 +111,58 @@
   </si>
   <si>
     <t>SubmissionHeading</t>
+  </si>
+  <si>
+    <t>Bursary Type D: Staff dependant studying at Wits</t>
+  </si>
+  <si>
+    <t>witsStudentNumber</t>
+  </si>
+  <si>
+    <t>A0043234: Jennifer Cohen - Students</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>natureOfRelationship</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>disabilities</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>grossIncome</t>
+  </si>
+  <si>
+    <t>estimatedGrossIncome</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>taxNumber</t>
+  </si>
+  <si>
+    <t>Bursary Type D: Staff dependant studying at Wits Submissions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +173,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF800000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,9 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375A088-B849-4403-87DE-33B0A5ACC6B2}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,9 +563,10 @@
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="24.85546875" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,10 +604,34 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -606,10 +669,10 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -617,16 +680,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -635,13 +701,40 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3500</v>
+      </c>
+      <c r="T3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="U3" s="2">
+        <v>12345678901111</v>
       </c>
     </row>
   </sheetData>

--- a/data/Wits Staff Bursary(1).xlsx
+++ b/data/Wits Staff Bursary(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoriso Molebatsi\OneDrive - iLAB, LLC\Documents\Functional Testing\UFT-Master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2925CD1-5958-406A-B4AF-B75B5491E66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122667AF-125F-4FCD-B9AA-3F053085BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Username</t>
   </si>
@@ -47,9 +47,6 @@
     <t>BursaryType</t>
   </si>
   <si>
-    <t>689c8c69c39d7b725da0ab30fc4f12e5500d</t>
-  </si>
-  <si>
     <t>A0090653</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Bursary Type D: Staff dependant studying at Wits Submissions</t>
+  </si>
+  <si>
+    <t>689c8c69c39d7b725da0ab30fc4f12e5500d2</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,81 +577,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
       <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" t="s">
-        <v>36</v>
-      </c>
       <c r="U1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -660,39 +660,63 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2">
+        <v>3500</v>
+      </c>
+      <c r="T2">
+        <v>7000</v>
+      </c>
+      <c r="U2">
+        <v>12345678901111</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -701,31 +725,31 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2">
         <v>10</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2">
         <v>3500</v>

--- a/data/Wits Staff Bursary(1).xlsx
+++ b/data/Wits Staff Bursary(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoriso Molebatsi\OneDrive - iLAB, LLC\Documents\Functional Testing\UFT-Master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tumelo Maphalla\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122667AF-125F-4FCD-B9AA-3F053085BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5614A1-8223-4AE5-A227-0FC3C329BF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Username</t>
   </si>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>689c8c69c39d7b725da0ab30fc4f12e5500d2</t>
+  </si>
+  <si>
+    <t>educationInstitution</t>
+  </si>
+  <si>
+    <t>witsBursaryRecievedBefore</t>
+  </si>
+  <si>
+    <t>yearOfQualification</t>
+  </si>
+  <si>
+    <t>North-West Univeristy</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>yearOfRegistration</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>Full_PartTime</t>
   </si>
 </sst>
 </file>
@@ -543,30 +567,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375A088-B849-4403-87DE-33B0A5ACC6B2}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +654,23 @@
       <c r="U1" t="s">
         <v>37</v>
       </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -695,8 +734,23 @@
       <c r="U2">
         <v>12345678901111</v>
       </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2">
+        <v>2023</v>
+      </c>
+      <c r="Y2">
+        <v>2023</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -759,6 +813,21 @@
       </c>
       <c r="U3" s="2">
         <v>12345678901111</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3">
+        <v>2023</v>
+      </c>
+      <c r="Y3">
+        <v>2023</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/Wits Staff Bursary(1).xlsx
+++ b/data/Wits Staff Bursary(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tumelo Maphalla\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5614A1-8223-4AE5-A227-0FC3C329BF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696D3097-D0A3-495D-8C3B-76718ECCED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Username</t>
   </si>
@@ -180,13 +180,58 @@
   </si>
   <si>
     <t>Full_PartTime</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>msedge.exe</t>
+  </si>
+  <si>
+    <t>https://qa.intranetapps.wits.ac.za/was/applogin</t>
+  </si>
+  <si>
+    <t>A0090655</t>
+  </si>
+  <si>
+    <t>LineManagerUsername</t>
+  </si>
+  <si>
+    <t>HRApprover</t>
+  </si>
+  <si>
+    <t>HRUsername</t>
+  </si>
+  <si>
+    <t>UploadedFilePathTxt</t>
+  </si>
+  <si>
+    <t>UploadedFilePathDocx</t>
+  </si>
+  <si>
+    <t>A0031536</t>
+  </si>
+  <si>
+    <t>Keitha January</t>
+  </si>
+  <si>
+    <t>A0026159</t>
+  </si>
+  <si>
+    <t>\data\empty_file.txt</t>
+  </si>
+  <si>
+    <t>\data\empty_file.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +249,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,10 +280,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375A088-B849-4403-87DE-33B0A5ACC6B2}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +642,7 @@
     <col min="21" max="21" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,8 +721,29 @@
       <c r="Z1" t="s">
         <v>47</v>
       </c>
+      <c r="AA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -749,10 +822,31 @@
       <c r="Z2" t="s">
         <v>46</v>
       </c>
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -828,6 +922,27 @@
       </c>
       <c r="Z3" t="s">
         <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/Wits Staff Bursary(1).xlsx
+++ b/data/Wits Staff Bursary(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoriso Molebatsi\OneDrive - iLAB, LLC\Documents\Functional Testing\UFT-Master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoriso Molebatsi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122667AF-125F-4FCD-B9AA-3F053085BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD1FB2-823F-4CBC-A0F7-0E2F8E76562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Username</t>
   </si>
@@ -156,13 +156,76 @@
   </si>
   <si>
     <t>689c8c69c39d7b725da0ab30fc4f12e5500d2</t>
+  </si>
+  <si>
+    <t>educationInstitution</t>
+  </si>
+  <si>
+    <t>witsBursaryRecievedBefore</t>
+  </si>
+  <si>
+    <t>yearOfQualification</t>
+  </si>
+  <si>
+    <t>North-West Univeristy</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>yearOfRegistration</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>Full_PartTime</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>msedge.exe</t>
+  </si>
+  <si>
+    <t>https://qa.intranetapps.wits.ac.za/was/applogin</t>
+  </si>
+  <si>
+    <t>A0090655</t>
+  </si>
+  <si>
+    <t>LineManagerUsername</t>
+  </si>
+  <si>
+    <t>HRApprover</t>
+  </si>
+  <si>
+    <t>HRUsername</t>
+  </si>
+  <si>
+    <t>UploadedFilePathTxt</t>
+  </si>
+  <si>
+    <t>UploadedFilePathDocx</t>
+  </si>
+  <si>
+    <t>A0031536</t>
+  </si>
+  <si>
+    <t>Keitha January</t>
+  </si>
+  <si>
+    <t>A0026159</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +243,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,10 +274,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375A088-B849-4403-87DE-33B0A5ACC6B2}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,9 +634,11 @@
     <col min="11" max="11" width="24.85546875" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
     <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +702,44 @@
       <c r="U1" t="s">
         <v>37</v>
       </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -695,10 +803,40 @@
       <c r="U2">
         <v>12345678901111</v>
       </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2">
+        <v>2023</v>
+      </c>
+      <c r="Y2">
+        <v>2023</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -759,6 +897,36 @@
       </c>
       <c r="U3" s="2">
         <v>12345678901111</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3">
+        <v>2023</v>
+      </c>
+      <c r="Y3">
+        <v>2023</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/Wits Staff Bursary(1).xlsx
+++ b/data/Wits Staff Bursary(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoriso Molebatsi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoriso Molebatsi\OneDrive - iLAB, LLC\Documents\Functional Testing\UFT-Master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD1FB2-823F-4CBC-A0F7-0E2F8E76562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B896B00F-83B8-4BB7-815D-22D261806391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{26B25BEA-3BCE-40F4-888B-FAB2E5F6A6A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Username</t>
   </si>
@@ -219,6 +219,30 @@
   </si>
   <si>
     <t>A0026159</t>
+  </si>
+  <si>
+    <t>\data\empty_file.txt</t>
+  </si>
+  <si>
+    <t>\data\empty_file.docx</t>
+  </si>
+  <si>
+    <t>BursaryPercentage</t>
+  </si>
+  <si>
+    <t>OverrideCalculatedPercentage</t>
+  </si>
+  <si>
+    <t>IsDocumentsProvided</t>
+  </si>
+  <si>
+    <t>ReasonForOverride</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>The applicant qualifies for a 100% bursary</t>
   </si>
 </sst>
 </file>
@@ -613,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375A088-B849-4403-87DE-33B0A5ACC6B2}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,9 +660,10 @@
     <col min="21" max="21" width="22.85546875" customWidth="1"/>
     <col min="32" max="32" width="21.140625" customWidth="1"/>
     <col min="33" max="33" width="25.42578125" customWidth="1"/>
+    <col min="37" max="37" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +763,20 @@
       <c r="AG1" t="s">
         <v>57</v>
       </c>
+      <c r="AH1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -833,8 +870,26 @@
       <c r="AE2" t="s">
         <v>60</v>
       </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2">
+        <v>100</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -927,6 +982,24 @@
       </c>
       <c r="AE3" t="s">
         <v>60</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH3">
+        <v>90</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
